--- a/data/long_razon/P37-Estudios-long_razon.xlsx
+++ b/data/long_razon/P37-Estudios-long_razon.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,12 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -587,6 +636,12 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>59,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-8,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-2,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>22,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-2,56%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -639,32 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 154,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-35,87; 32,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-27,06; 33,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-21,73; 31,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,31; 63,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-22,24; 20,68</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>13,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>13,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -719,32 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,81; 36,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 46,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 51,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 38,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-5,35; 31,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 32,47</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>19,9%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>60,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,21%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>9,47%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,89; 66,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,3; 41,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,6; 117,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-10,34; 42,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,13; 72,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 30,62</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>20,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>21,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -879,45 +1144,223 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 45,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 25,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>7,73; 44,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 25,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>8,41; 39,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 20,04</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P37-Estudios-long_razon.xlsx
+++ b/data/long_razon/P37-Estudios-long_razon.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +127,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +140,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -654,419 +659,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C4" s="5" t="inlineStr"/>
+      <c r="D4" s="5" t="inlineStr"/>
+      <c r="E4" s="5" t="inlineStr"/>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="inlineStr"/>
+      <c r="I4" s="5" t="inlineStr"/>
+      <c r="J4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr"/>
+      <c r="D5" s="5" t="inlineStr"/>
+      <c r="E5" s="5" t="inlineStr"/>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="inlineStr"/>
+      <c r="I5" s="5" t="inlineStr"/>
+      <c r="J5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="inlineStr"/>
+      <c r="L5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="inlineStr"/>
+      <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr"/>
+      <c r="D6" s="5" t="inlineStr"/>
+      <c r="E6" s="5" t="inlineStr"/>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="inlineStr"/>
+      <c r="I6" s="5" t="inlineStr"/>
+      <c r="J6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="inlineStr"/>
+      <c r="L6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="inlineStr"/>
+      <c r="N6" s="5" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C7" s="5" t="inlineStr"/>
+      <c r="D7" s="5" t="inlineStr"/>
+      <c r="E7" s="5" t="inlineStr"/>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="inlineStr"/>
+      <c r="I7" s="5" t="inlineStr"/>
+      <c r="J7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="inlineStr"/>
+      <c r="L7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="inlineStr"/>
+      <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="inlineStr"/>
+      <c r="D8" s="5" t="inlineStr"/>
+      <c r="E8" s="5" t="inlineStr"/>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="inlineStr"/>
+      <c r="I8" s="5" t="inlineStr"/>
+      <c r="J8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="inlineStr"/>
+      <c r="L8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="inlineStr"/>
+      <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr"/>
+      <c r="D9" s="5" t="inlineStr"/>
+      <c r="E9" s="5" t="inlineStr"/>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="inlineStr"/>
+      <c r="I9" s="5" t="inlineStr"/>
+      <c r="J9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="inlineStr"/>
+      <c r="L9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="inlineStr"/>
+      <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1074,293 +787,140 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="inlineStr"/>
+      <c r="D10" s="5" t="inlineStr"/>
+      <c r="E10" s="5" t="inlineStr"/>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="inlineStr"/>
+      <c r="L10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="inlineStr"/>
+      <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr"/>
+      <c r="D11" s="5" t="inlineStr"/>
+      <c r="E11" s="5" t="inlineStr"/>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="inlineStr"/>
+      <c r="L11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="inlineStr"/>
+      <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr"/>
+      <c r="D12" s="5" t="inlineStr"/>
+      <c r="E12" s="5" t="inlineStr"/>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="inlineStr"/>
+      <c r="L12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="inlineStr"/>
+      <c r="N12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
+      <c r="C13" s="5" t="inlineStr"/>
+      <c r="D13" s="5" t="inlineStr"/>
+      <c r="E13" s="5" t="inlineStr"/>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+      <c r="I13" s="5" t="inlineStr"/>
+      <c r="J13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="inlineStr"/>
+      <c r="L13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="inlineStr"/>
+      <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr"/>
+      <c r="D14" s="5" t="inlineStr"/>
+      <c r="E14" s="5" t="inlineStr"/>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+      <c r="I14" s="5" t="inlineStr"/>
+      <c r="J14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="inlineStr"/>
+      <c r="L14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="inlineStr"/>
+      <c r="N14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr"/>
+      <c r="D15" s="5" t="inlineStr"/>
+      <c r="E15" s="5" t="inlineStr"/>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
+      <c r="I15" s="5" t="inlineStr"/>
+      <c r="J15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="inlineStr"/>
+      <c r="L15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="inlineStr"/>
+      <c r="N15" s="5" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P37-Estudios-long_razon.xlsx
+++ b/data/long_razon/P37-Estudios-long_razon.xlsx
@@ -659,17 +659,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.5647105796502313</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-0.07443243821985226</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.2325269620657857</v>
+      </c>
       <c r="F4" s="5" t="inlineStr"/>
-      <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="n">
+        <v>0.1248281527848715</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>-0.03789772634235849</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>0.0166203330474851</v>
+      </c>
       <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
-      <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
+      <c r="K4" s="5" t="n">
+        <v>0.2946976170795573</v>
+      </c>
+      <c r="L4" s="5" t="n">
+        <v>-0.05334006337313575</v>
+      </c>
+      <c r="M4" s="5" t="n">
+        <v>0.1002400387547258</v>
+      </c>
       <c r="N4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -679,17 +697,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.03069602959903839</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.3467979617691684</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3193103719598348</v>
+      </c>
       <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="n">
+        <v>-0.2265776540199759</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>-0.2698854785701381</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-0.3138965471193325</v>
+      </c>
       <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-      <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
+      <c r="K5" s="5" t="n">
+        <v>-0.04100793700780391</v>
+      </c>
+      <c r="L5" s="5" t="n">
+        <v>-0.2402232315238693</v>
+      </c>
+      <c r="M5" s="5" t="n">
+        <v>-0.2034526154802029</v>
+      </c>
       <c r="N5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -699,17 +735,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.660856026291404</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>0.3256786939483314</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>1.024925198804752</v>
+      </c>
       <c r="F6" s="5" t="inlineStr"/>
-      <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="n">
+        <v>0.6237817433038395</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>0.2541274132326623</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>0.5185928195887145</v>
+      </c>
       <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-      <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
+      <c r="K6" s="5" t="n">
+        <v>0.8218589812604029</v>
+      </c>
+      <c r="L6" s="5" t="n">
+        <v>0.1663141952711353</v>
+      </c>
+      <c r="M6" s="5" t="n">
+        <v>0.541677327784417</v>
+      </c>
       <c r="N6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -723,17 +777,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.04220070287793645</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.1708220818874034</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.07763936207427842</v>
+      </c>
       <c r="F7" s="5" t="inlineStr"/>
-      <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="n">
+        <v>0.2390872062795912</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>0.1332508827834405</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>-0.001864276639160458</v>
+      </c>
       <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
-      <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
+      <c r="K7" s="5" t="n">
+        <v>0.1366504627107485</v>
+      </c>
+      <c r="L7" s="5" t="n">
+        <v>0.1527581339172078</v>
+      </c>
+      <c r="M7" s="5" t="n">
+        <v>0.03623914405744472</v>
+      </c>
       <c r="N7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -743,17 +815,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.2292134144232972</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.08000731938196015</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.2260653542901126</v>
+      </c>
       <c r="F8" s="5" t="inlineStr"/>
-      <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="n">
+        <v>-0.03895124967433863</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>-0.09147951255799849</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.221081240486059</v>
+      </c>
       <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-      <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
+      <c r="K8" s="5" t="n">
+        <v>-0.0634117296444961</v>
+      </c>
+      <c r="L8" s="5" t="n">
+        <v>-0.0259192241404331</v>
+      </c>
+      <c r="M8" s="5" t="n">
+        <v>-0.1450510338226845</v>
+      </c>
       <c r="N8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -763,17 +853,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.4370705140765385</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.5322962750647465</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5430797190535361</v>
+      </c>
       <c r="F9" s="5" t="inlineStr"/>
-      <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="n">
+        <v>0.5792855852442688</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>0.3654732180625307</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.2443812864137895</v>
+      </c>
       <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-      <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
+      <c r="K9" s="5" t="n">
+        <v>0.3873900451655187</v>
+      </c>
+      <c r="L9" s="5" t="n">
+        <v>0.3530533071600296</v>
+      </c>
+      <c r="M9" s="5" t="n">
+        <v>0.2694183552062416</v>
+      </c>
       <c r="N9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -787,17 +895,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>0.2460006788314101</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.07261287249950236</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>0.04432497114336743</v>
+      </c>
       <c r="F10" s="5" t="inlineStr"/>
-      <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="n">
+        <v>0.5734762005264005</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>0.1615226712915335</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.3386383248085356</v>
+      </c>
       <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-      <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
+      <c r="K10" s="5" t="n">
+        <v>0.4014825027219014</v>
+      </c>
+      <c r="L10" s="5" t="n">
+        <v>0.1222730493252131</v>
+      </c>
+      <c r="M10" s="5" t="n">
+        <v>0.1845646610366438</v>
+      </c>
       <c r="N10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -807,17 +933,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>-0.1676592301798671</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.2239965608383742</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.3006082650983927</v>
+      </c>
       <c r="F11" s="5" t="inlineStr"/>
-      <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="n">
+        <v>0.1411409473264334</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>-0.1125754052632593</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.01238954437444068</v>
+      </c>
       <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-      <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
+      <c r="K11" s="5" t="n">
+        <v>0.0962608600325197</v>
+      </c>
+      <c r="L11" s="5" t="n">
+        <v>-0.06274726706760064</v>
+      </c>
+      <c r="M11" s="5" t="n">
+        <v>-0.0683666189959375</v>
+      </c>
       <c r="N11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -827,17 +971,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>0.8268473814793775</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.4772038027241979</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.5328786596109227</v>
+      </c>
       <c r="F12" s="5" t="inlineStr"/>
-      <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="n">
+        <v>1.124323265111967</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>0.452392713621745</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>0.7664331775371237</v>
+      </c>
       <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-      <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
+      <c r="K12" s="5" t="n">
+        <v>0.8055446749981088</v>
+      </c>
+      <c r="L12" s="5" t="n">
+        <v>0.3501256341725708</v>
+      </c>
+      <c r="M12" s="5" t="n">
+        <v>0.4669652601669178</v>
+      </c>
       <c r="N12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -851,17 +1013,35 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.1848343201110945</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.08768412462220627</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.0967512116850397</v>
+      </c>
       <c r="F13" s="5" t="inlineStr"/>
-      <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="n">
+        <v>0.2979575047012637</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>0.09086672531897511</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.09201010969073586</v>
+      </c>
       <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-      <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
+      <c r="K13" s="5" t="n">
+        <v>0.2420209880519694</v>
+      </c>
+      <c r="L13" s="5" t="n">
+        <v>0.08936224702929235</v>
+      </c>
+      <c r="M13" s="5" t="n">
+        <v>0.09424104557498478</v>
+      </c>
       <c r="N13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -871,17 +1051,35 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.06887855183389135</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.09336688660684309</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.1041954778514306</v>
+      </c>
       <c r="F14" s="5" t="inlineStr"/>
-      <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="n">
+        <v>0.1053306382625491</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>-0.04930641588437831</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-0.07706897874554433</v>
+      </c>
       <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-      <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
+      <c r="K14" s="5" t="n">
+        <v>0.08205773193752725</v>
+      </c>
+      <c r="L14" s="5" t="n">
+        <v>-0.01793960515682553</v>
+      </c>
+      <c r="M14" s="5" t="n">
+        <v>-0.0438973364457214</v>
+      </c>
       <c r="N14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -891,17 +1089,35 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.4904055629834017</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2920712371852724</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.3982869428324499</v>
+      </c>
       <c r="F15" s="5" t="inlineStr"/>
-      <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="n">
+        <v>0.5577379720134311</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>0.2314741207746397</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.2894426398224681</v>
+      </c>
       <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-      <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
+      <c r="K15" s="5" t="n">
+        <v>0.4424504994181734</v>
+      </c>
+      <c r="L15" s="5" t="n">
+        <v>0.2276174545993079</v>
+      </c>
+      <c r="M15" s="5" t="n">
+        <v>0.2671159293265976</v>
+      </c>
       <c r="N15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
